--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_44.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_44.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,67 +488,64 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(10.56, 16.4)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(102.76, 118.78)]</t>
+          <t>[('0:00:02.020000', '0:00:10.620000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:49.140000', '0:01:02.460000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>0.2666666666666667</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
@@ -551,654 +553,623 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(17.86, 28.3)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[('0:00:06.800000', '0:00:12.660000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[('0:00:20.580000', '0:00:32.500000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3555555555555555</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['F/2', 'C', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(97.62, 113.78)]</t>
+          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(10.94, 16.32)]</t>
+          <t>[('0:00:57.758000', '0:01:05.204000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:54.520000', '0:01:55.980000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(62.02, 71.86)]</t>
+          <t>[('0:01:00.680000', '0:01:06.800000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:01.260000', '0:01:07.540000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(88.48, 100.38), (40.38, 42.28)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(26.2, 33.96), (80.2, 86.86)]</t>
+          <t>[('0:00:45.260000', '0:00:57.580000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:08.220000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(36.28, 38.0), (36.14, 37.58), (9.62, 14.18)]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(9.64, 22.68), (50.58, 59.48), (0.36, 5.0)]</t>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:08.260000', '0:00:12.960000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A/3', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(6.28, 12.06)]</t>
+          <t>[('0:00:58.557000', '0:01:02.834000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:07.600000', '0:00:17.160000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(41.58, 43.48)]</t>
+          <t>[('0:00:11.500000', '0:00:37.580000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:41.920000', '0:00:59.040000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1319148936170213</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(129.38, 134.38)]</t>
+          <t>[('0:00:13.420000', '0:00:53.020000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+          <t>[('0:00:13.520000', '0:00:51.460000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(12.82, 52.64)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(14.52, 59.64)]</t>
+          <t>[('0:01:08.980000', '0:01:27.200000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:02:02.780000', '0:02:05')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02)]</t>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:53.140000', '0:01:54.880000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(43.68, 45.8)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.38, 6.26)]</t>
+          <t>[('0:00:00.660000', '0:00:13.920000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:01.240000', '0:00:15.940000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(21.78, 28.04)]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(53.82, 62.52)]</t>
+          <t>[('0:00:07.600000', '0:00:13.860000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:03.660000', '0:00:07.560000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:min', 'G:7/C', 'G:(3,5,b7,b9)/C', 'C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(43.38, 45.8)]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(1.5, 4.8)]</t>
+          <t>[('0:00:13.640000', '0:00:43.660000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:15.360000', '0:00:45.820000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1480769230769231</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'A'], ['A', 'D', 'A']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(64.22, 69.76), (21.58, 29.34)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(43.926916, 50.765192), (28.450816, 36.229501)]</t>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(106.96, 119.34)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(93.3, 103.06)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
